--- a/biology/Botanique/Calpocalyx_atlanticus/Calpocalyx_atlanticus.xlsx
+++ b/biology/Botanique/Calpocalyx_atlanticus/Calpocalyx_atlanticus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calpocalyx atlanticus Villiers est une espèce d'arbres du genre Calpocalyx de la famille des Fabaceae, endémique des forêts atlantiques du Cameroun. 
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un petit arbre dont la hauteur est comprise entre 7 et 10 m, atteignant 10 cm de diamètre de fût. C. atlanticus se distingue des autres espèces du genre Calpocalyx par la grande taille de ses folioles[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un petit arbre dont la hauteur est comprise entre 7 et 10 m, atteignant 10 cm de diamètre de fût. C. atlanticus se distingue des autres espèces du genre Calpocalyx par la grande taille de ses folioles.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique, relativement rare, on ne trouve l'espèce que dans la forêt rémanente[3]. Elle a été observée au bord du Nyong, à 65 km au sud-ouest d'Éséka, et à Kendonge, à 13 km au sud-ouest de Kumba[2]. Connue seulement de ces deux sites, elle est jugée vulnérable[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique, relativement rare, on ne trouve l'espèce que dans la forêt rémanente. Elle a été observée au bord du Nyong, à 65 km au sud-ouest d'Éséka, et à Kendonge, à 13 km au sud-ouest de Kumba. Connue seulement de ces deux sites, elle est jugée vulnérable.
 </t>
         </is>
       </c>
